--- a/data/Markov_Blankets.xlsx
+++ b/data/Markov_Blankets.xlsx
@@ -5,17 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HD" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="EW" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="FC" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="DMK" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="IJ_and_HD" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="TID_and_EW" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="DMNT_and_FC_and_DMK" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="FL_and_IJ_and_TID_and_DMNT" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="MAR" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="DMK" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="IJ_and_HD" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="TID_and_EW_and_MAR" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="DMNT_and_FC_and_DMK" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="FL_and_IJ_and_TID_and_DMNT" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t xml:space="preserve">Probability</t>
   </si>
@@ -50,6 +51,12 @@
     <t xml:space="preserve">Below_Average_FC</t>
   </si>
   <si>
+    <t xml:space="preserve">Present_MAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absent_MAR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Probabilities</t>
   </si>
   <si>
@@ -63,6 +70,18 @@
   </si>
   <si>
     <t xml:space="preserve">Below_Average_IJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Above_Average_EW:Present_MAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Below_Average_EW:Present_MAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Above_Average_EW:Absent_MAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Below_Average_EW:Absent_MAR</t>
   </si>
   <si>
     <t xml:space="preserve">Above_Average_TID</t>
@@ -225,12 +244,12 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -243,7 +262,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -251,12 +270,12 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -276,9 +295,9 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -286,7 +305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -294,7 +313,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -304,7 +323,7 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -321,12 +340,12 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -352,7 +371,7 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -362,6 +381,51 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -372,62 +436,11 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -437,9 +450,6 @@
       <c r="B2" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>0.6</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -448,13 +458,10 @@
       <c r="B3" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>0.4</v>
-      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -471,22 +478,20 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -494,10 +499,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -505,15 +510,15 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>0.65</v>
+        <v>0.3</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -527,20 +532,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="26.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.84"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
@@ -553,45 +558,50 @@
       <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="D2" s="1" t="n">
+      <c r="B2" s="2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E2" s="2" t="n">
         <v>0.3</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="D3" s="1" t="n">
+      <c r="B3" s="2" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E3" s="2" t="n">
         <v>0.7</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -605,61 +615,138 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="26.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.16"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="41.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="50.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="39.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="35.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="32.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="50.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="39.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="35.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="32.33"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0.5</v>
@@ -668,27 +755,27 @@
         <v>0.3</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>0.4</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="I2" s="1" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>0.7</v>
-      </c>
       <c r="C3" s="1" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>0.5</v>
@@ -697,21 +784,21 @@
         <v>0.7</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>0.6</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
